--- a/public/template/BILL.xlsx
+++ b/public/template/BILL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\2023\blooms\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54996C58-1239-44E7-BEAB-C0F2B33E8406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D6E8E-B5BA-44FF-9975-193830514B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="2235" windowWidth="16560" windowHeight="12570" xr2:uid="{0E217DA6-08C8-4052-A9CD-31C1A8B59B47}"/>
+    <workbookView xWindow="7155" yWindow="1890" windowWidth="16560" windowHeight="12570" xr2:uid="{0E217DA6-08C8-4052-A9CD-31C1A8B59B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>HÓA ĐƠN BÁN HÀNG</t>
   </si>
@@ -66,20 +66,6 @@
   </si>
   <si>
     <t>TỔNG CỘNG:</t>
-  </si>
-  <si>
-    <r>
-      <t>Thành tiến (viết bằng chữ)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
   </si>
   <si>
     <t>Ngày….. tháng.....năm 2021</t>
@@ -288,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,6 +295,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,7 +326,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -346,26 +353,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +728,7 @@
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -752,99 +741,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="40.5" customHeight="1">
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="2:9" ht="29.25" customHeight="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:9" ht="30" customHeight="1">
+      <c r="B4" s="12"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="2:9" ht="29.25" customHeight="1">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="2:9" ht="30" customHeight="1">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="11"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" ht="20.25" customHeight="1">
       <c r="B5" s="1"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="18.75" customHeight="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" ht="18.75">
       <c r="B7" s="1"/>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="18.75">
       <c r="B8" s="1"/>
-      <c r="C8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" ht="18.75">
@@ -883,87 +872,92 @@
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:9" ht="18.75">
+    <row r="12" spans="2:9" ht="18.75" customHeight="1">
       <c r="B12" s="1"/>
-      <c r="C12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="18.75">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="F13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" customHeight="1">
       <c r="B14" s="1"/>
-      <c r="C14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="24"/>
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="24"/>
+      <c r="G14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:9" ht="18.75">
       <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="26"/>
+      <c r="G15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="10"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" ht="18.75">
       <c r="B16" s="1"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H16"/>
     <mergeCell ref="C15:D16"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C12:H12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="C11:G11"/>
@@ -973,12 +967,6 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
